--- a/biology/Botanique/Liste_des_espèces_d'Impatiens/Liste_des_espèces_d'Impatiens.xlsx
+++ b/biology/Botanique/Liste_des_espèces_d'Impatiens/Liste_des_espèces_d'Impatiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_d%27Impatiens</t>
+          <t>Liste_des_espèces_d'Impatiens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Impatiens est un grand genre largement distribué de plantes à fleurs de la famille des Balsaminaceae . En janvier 2019, il y avait plus de 1 000 espèces acceptées dans Kew 's Plants of the World Online . 
+          <t>Impatiens est un grand genre largement distribué de plantes à fleurs de la famille des Balsaminaceae . En janvier 2019, il y avait plus de 1 000 espèces acceptées dans Kew 's Plants of the World Online . 
 Impatiens × kaskazinii  Grimshaw &amp; Grey-Wilson
 Impatiens × lateritia  Gilg
 Impatiens × pacifica  Zika
@@ -1348,7 +1360,7 @@
 Impatiens stefaniae Eb.Fisch. &amp; Raheliv.
 Impatiens stenantha Hook.f.
 Impatiens stenosepala E.Pritz. ex Diels
-Impatiens sterilis Y. Y. Cong &amp; Y. X. Song[1]
+Impatiens sterilis Y. Y. Cong &amp; Y. X. Song
 Impatiens stocksii Hook.f. &amp; Thomson
 Impatiens stoliczkai Hook.f.
 Impatiens stolonifera Robi &amp; Manudev
@@ -1461,7 +1473,7 @@
 Impatiens vebrowniae Eb.Fisch., Wohlh. &amp; Raheliv.
 Impatiens veerapazhasii Ratheesh, Sujanapal &amp; Meera
 Impatiens velaxata Hook.f.
-Impatiens </t>
+Impatiens vel</t>
         </is>
       </c>
     </row>
